--- a/data/tehilim-data/38.xlsx
+++ b/data/tehilim-data/38.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="312">
   <si>
     <t>original</t>
   </si>
@@ -67,657 +67,693 @@
     <t>обличай меня</t>
   </si>
   <si>
-    <t>וּבַחֲמָתְךָ</t>
-  </si>
-  <si>
-    <t>и гневом Твоим</t>
-  </si>
-  <si>
-    <t>תְיַסְּרֵנִי</t>
-  </si>
-  <si>
-    <t>не наказывай меня</t>
+    <t>ובחמתך</t>
+  </si>
+  <si>
+    <t>и во гневе Твоем</t>
+  </si>
+  <si>
+    <t>תיסרני</t>
+  </si>
+  <si>
+    <t>наказывай меня</t>
   </si>
   <si>
     <t>ג</t>
   </si>
   <si>
+    <t>כי</t>
+  </si>
+  <si>
+    <t>Ибо</t>
+  </si>
+  <si>
+    <t>חציך</t>
+  </si>
+  <si>
+    <t>стрелы Твои</t>
+  </si>
+  <si>
+    <t>נחתו</t>
+  </si>
+  <si>
+    <t>вонзились</t>
+  </si>
+  <si>
+    <t>בי</t>
+  </si>
+  <si>
+    <t>в меня</t>
+  </si>
+  <si>
+    <t>ותנחת</t>
+  </si>
+  <si>
+    <t>и рука Твоя</t>
+  </si>
+  <si>
+    <t>עלי</t>
+  </si>
+  <si>
+    <t>тяготеет</t>
+  </si>
+  <si>
+    <t>ידך</t>
+  </si>
+  <si>
+    <t>надо мною</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>אין</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>מתום</t>
+  </si>
+  <si>
+    <t>целого места</t>
+  </si>
+  <si>
+    <t>בבשרי</t>
+  </si>
+  <si>
+    <t>на теле моем</t>
+  </si>
+  <si>
+    <t>מִפְּנֵי</t>
+  </si>
+  <si>
+    <t>по причине</t>
+  </si>
+  <si>
+    <t>זַעְמֶךָ</t>
+  </si>
+  <si>
+    <t>гнева Твоего</t>
+  </si>
+  <si>
+    <t>אֵין</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>שָׁלוֹם</t>
+  </si>
+  <si>
+    <t>мира</t>
+  </si>
+  <si>
+    <t>בַּעֲצָמַי</t>
+  </si>
+  <si>
+    <t>в костях моих</t>
+  </si>
+  <si>
+    <t>חַטָּאתִי</t>
+  </si>
+  <si>
+    <t>от грехов моих</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
     <t>כִּי</t>
   </si>
   <si>
     <t>ибо</t>
   </si>
   <si>
-    <t>חִצֶּיךָ</t>
-  </si>
-  <si>
-    <t>стрелы Твои</t>
-  </si>
-  <si>
-    <t>נִחֲתוּ</t>
-  </si>
-  <si>
-    <t>вонзились</t>
-  </si>
-  <si>
-    <t>בִי</t>
-  </si>
-  <si>
-    <t>в меня</t>
-  </si>
-  <si>
-    <t>וַתִּנְחַת</t>
-  </si>
-  <si>
-    <t>и рука Твоя</t>
+    <t>עֲוֹנוֹתַי</t>
+  </si>
+  <si>
+    <t>беззакония мои</t>
+  </si>
+  <si>
+    <t>עָבְרוּ</t>
+  </si>
+  <si>
+    <t>превысили</t>
+  </si>
+  <si>
+    <t>רֹאשִׁי</t>
+  </si>
+  <si>
+    <t>голову мою</t>
+  </si>
+  <si>
+    <t>כְּמַשָּׂא</t>
+  </si>
+  <si>
+    <t>как тяжкое</t>
+  </si>
+  <si>
+    <t>כָבֵד</t>
+  </si>
+  <si>
+    <t>бремя</t>
+  </si>
+  <si>
+    <t>יִכְבְּדוּ</t>
+  </si>
+  <si>
+    <t>тяготят</t>
+  </si>
+  <si>
+    <t>מִמֶּנִּי</t>
+  </si>
+  <si>
+    <t>они меня</t>
+  </si>
+  <si>
+    <t>ו</t>
+  </si>
+  <si>
+    <t>הבאישו</t>
+  </si>
+  <si>
+    <t>Смердят</t>
+  </si>
+  <si>
+    <t>נמקו</t>
+  </si>
+  <si>
+    <t>гноятся</t>
+  </si>
+  <si>
+    <t>חבורתי</t>
+  </si>
+  <si>
+    <t>раны мои</t>
+  </si>
+  <si>
+    <t>מפני</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>אולתי</t>
+  </si>
+  <si>
+    <t>безумия моего</t>
+  </si>
+  <si>
+    <t>ז</t>
+  </si>
+  <si>
+    <t>נעויתי</t>
+  </si>
+  <si>
+    <t>Скорбен</t>
+  </si>
+  <si>
+    <t>שחתי</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>עד</t>
+  </si>
+  <si>
+    <t>согбен</t>
+  </si>
+  <si>
+    <t>מאד</t>
+  </si>
+  <si>
+    <t>чрезмерно</t>
+  </si>
+  <si>
+    <t>כל</t>
+  </si>
+  <si>
+    <t>весь</t>
+  </si>
+  <si>
+    <t>היום</t>
+  </si>
+  <si>
+    <t>день</t>
+  </si>
+  <si>
+    <t>קדר</t>
+  </si>
+  <si>
+    <t>сетуя</t>
+  </si>
+  <si>
+    <t>הלכתי</t>
+  </si>
+  <si>
+    <t>хожу</t>
+  </si>
+  <si>
+    <t>ח</t>
+  </si>
+  <si>
+    <t>כסלי</t>
+  </si>
+  <si>
+    <t>чресла</t>
+  </si>
+  <si>
+    <t>מלאו</t>
+  </si>
+  <si>
+    <t>мои</t>
+  </si>
+  <si>
+    <t>נקלה</t>
+  </si>
+  <si>
+    <t>полны воспалениями</t>
+  </si>
+  <si>
+    <t>ואין</t>
+  </si>
+  <si>
+    <t>и нет</t>
+  </si>
+  <si>
+    <t>ט</t>
+  </si>
+  <si>
+    <t>נפוגותי</t>
+  </si>
+  <si>
+    <t>Я</t>
+  </si>
+  <si>
+    <t>ונדכיתי</t>
+  </si>
+  <si>
+    <t>изнемог</t>
+  </si>
+  <si>
+    <t>и сокрушен</t>
+  </si>
+  <si>
+    <t>שאגתי</t>
+  </si>
+  <si>
+    <t>кричу</t>
+  </si>
+  <si>
+    <t>מנהמת</t>
+  </si>
+  <si>
+    <t>от терзания</t>
+  </si>
+  <si>
+    <t>לבי</t>
+  </si>
+  <si>
+    <t>сердца моего</t>
+  </si>
+  <si>
+    <t>י</t>
+  </si>
+  <si>
+    <t>אדני</t>
+  </si>
+  <si>
+    <t>נגדך</t>
+  </si>
+  <si>
+    <t>пред Тобою</t>
+  </si>
+  <si>
+    <t>все</t>
+  </si>
+  <si>
+    <t>תאותי</t>
+  </si>
+  <si>
+    <t>желания мои</t>
+  </si>
+  <si>
+    <t>ואנחתי</t>
+  </si>
+  <si>
+    <t>и воздыхание мое</t>
+  </si>
+  <si>
+    <t>ממך</t>
+  </si>
+  <si>
+    <t>לא</t>
+  </si>
+  <si>
+    <t>сокрыто</t>
+  </si>
+  <si>
+    <t>נסתרה</t>
+  </si>
+  <si>
+    <t>от Тебя</t>
+  </si>
+  <si>
+    <t>יא</t>
+  </si>
+  <si>
+    <t>Сердце мое</t>
+  </si>
+  <si>
+    <t>סחרחר</t>
+  </si>
+  <si>
+    <t>трепещет</t>
+  </si>
+  <si>
+    <t>עזבני</t>
+  </si>
+  <si>
+    <t>оставила меня</t>
+  </si>
+  <si>
+    <t>כחי</t>
+  </si>
+  <si>
+    <t>сила моя</t>
+  </si>
+  <si>
+    <t>ואור</t>
+  </si>
+  <si>
+    <t>и свет</t>
+  </si>
+  <si>
+    <t>עיני</t>
+  </si>
+  <si>
+    <t>очей моих</t>
+  </si>
+  <si>
+    <t>גם</t>
+  </si>
+  <si>
+    <t>также</t>
+  </si>
+  <si>
+    <t>הם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">со </t>
+  </si>
+  <si>
+    <t>אתי</t>
+  </si>
+  <si>
+    <t>мною</t>
+  </si>
+  <si>
+    <t>יב</t>
+  </si>
+  <si>
+    <t>אהבי</t>
+  </si>
+  <si>
+    <t>Друзья мои</t>
+  </si>
+  <si>
+    <t>ורעי</t>
+  </si>
+  <si>
+    <t>и искренние</t>
+  </si>
+  <si>
+    <t>מנגד</t>
+  </si>
+  <si>
+    <t>удаляются</t>
+  </si>
+  <si>
+    <t>נגעי</t>
+  </si>
+  <si>
+    <t>от язвы моей</t>
+  </si>
+  <si>
+    <t>יעמדו</t>
+  </si>
+  <si>
+    <t>стоят</t>
+  </si>
+  <si>
+    <t>ורחוק</t>
+  </si>
+  <si>
+    <t>вдали</t>
+  </si>
+  <si>
+    <t>עמדי</t>
+  </si>
+  <si>
+    <t>и ближние</t>
+  </si>
+  <si>
+    <t>מֵרָחֹק</t>
+  </si>
+  <si>
+    <t>издали</t>
+  </si>
+  <si>
+    <t>עָמָדוּ</t>
+  </si>
+  <si>
+    <t>יג</t>
+  </si>
+  <si>
+    <t>וַיְנַקְשׁוּ</t>
+  </si>
+  <si>
+    <t>и строят сети</t>
+  </si>
+  <si>
+    <t>מְבַקְשֵׁי</t>
+  </si>
+  <si>
+    <t>ищущие</t>
+  </si>
+  <si>
+    <t>נַפְשִׁי</t>
+  </si>
+  <si>
+    <t>душу мою</t>
+  </si>
+  <si>
+    <t>וּמְבַקְשֵׁי</t>
+  </si>
+  <si>
+    <t>и желающие</t>
+  </si>
+  <si>
+    <t>רָעָתִי</t>
+  </si>
+  <si>
+    <t>зла мне</t>
+  </si>
+  <si>
+    <t>דִּבְּרוּ</t>
+  </si>
+  <si>
+    <t>говорят</t>
+  </si>
+  <si>
+    <t>הַוּוֹת</t>
+  </si>
+  <si>
+    <t>пагубное</t>
+  </si>
+  <si>
+    <t>וּמִרְמוֹת</t>
+  </si>
+  <si>
+    <t>и коварство</t>
+  </si>
+  <si>
+    <t>כָּל</t>
+  </si>
+  <si>
+    <t>הַיּוֹם</t>
+  </si>
+  <si>
+    <t>יֶהְגּוּ</t>
+  </si>
+  <si>
+    <t>замышляют</t>
+  </si>
+  <si>
+    <t>יד</t>
+  </si>
+  <si>
+    <t>וַאֲנִי</t>
+  </si>
+  <si>
+    <t>а я</t>
+  </si>
+  <si>
+    <t>כְחֵרֵשׁ</t>
+  </si>
+  <si>
+    <t>как глухой</t>
+  </si>
+  <si>
+    <t>לֹא</t>
+  </si>
+  <si>
+    <t>אֶשְׁמָע</t>
+  </si>
+  <si>
+    <t>слышу</t>
+  </si>
+  <si>
+    <t>וּכְאִלֵּם</t>
+  </si>
+  <si>
+    <t>и как немой</t>
+  </si>
+  <si>
+    <t>יִפְתַּח</t>
+  </si>
+  <si>
+    <t>открывает</t>
+  </si>
+  <si>
+    <t>פִּיו</t>
+  </si>
+  <si>
+    <t>уст своих</t>
+  </si>
+  <si>
+    <t>טו</t>
+  </si>
+  <si>
+    <t>וָאֱהִי</t>
+  </si>
+  <si>
+    <t>и стал я</t>
+  </si>
+  <si>
+    <t>כְּאִישׁ</t>
+  </si>
+  <si>
+    <t>как человек</t>
+  </si>
+  <si>
+    <t>אֲשֶׁר</t>
+  </si>
+  <si>
+    <t>который</t>
+  </si>
+  <si>
+    <t>שֹׁמֵעַ</t>
+  </si>
+  <si>
+    <t>слышит</t>
+  </si>
+  <si>
+    <t>וְאֵין</t>
+  </si>
+  <si>
+    <t>בְּפִיו</t>
+  </si>
+  <si>
+    <t>в устах его</t>
+  </si>
+  <si>
+    <t>תוֹכָחוֹת</t>
+  </si>
+  <si>
+    <t>защиты</t>
+  </si>
+  <si>
+    <t>טז</t>
+  </si>
+  <si>
+    <t>לְךָ</t>
+  </si>
+  <si>
+    <t>на Тебя</t>
+  </si>
+  <si>
+    <t>הוֹחָלְתִּי</t>
+  </si>
+  <si>
+    <t>уповаю</t>
+  </si>
+  <si>
+    <t>אַתָּה</t>
+  </si>
+  <si>
+    <t>Ты</t>
+  </si>
+  <si>
+    <t>תַעֲנֶה</t>
+  </si>
+  <si>
+    <t>отвечаешь</t>
+  </si>
+  <si>
+    <t>אֲדֹנָי</t>
+  </si>
+  <si>
+    <t>אֱלֹהָי</t>
+  </si>
+  <si>
+    <t>Боже мой</t>
+  </si>
+  <si>
+    <t>יז</t>
+  </si>
+  <si>
+    <t>אָמַרְתִּי</t>
+  </si>
+  <si>
+    <t>говорю я</t>
+  </si>
+  <si>
+    <t>פֶּן</t>
+  </si>
+  <si>
+    <t>да не</t>
+  </si>
+  <si>
+    <t>יִשְׂמְחוּ</t>
+  </si>
+  <si>
+    <t>радуются</t>
+  </si>
+  <si>
+    <t>לִי</t>
+  </si>
+  <si>
+    <t>мне</t>
+  </si>
+  <si>
+    <t>בְּמוֹט</t>
+  </si>
+  <si>
+    <t>когда колеблется</t>
+  </si>
+  <si>
+    <t>רַגְלִי</t>
+  </si>
+  <si>
+    <t>нога моя</t>
   </si>
   <si>
     <t>עָלַי</t>
   </si>
   <si>
-    <t>тяготеет</t>
-  </si>
-  <si>
-    <t>יָדֶךָ</t>
-  </si>
-  <si>
-    <t>на мне</t>
-  </si>
-  <si>
-    <t>ד</t>
-  </si>
-  <si>
-    <t>אֵין</t>
-  </si>
-  <si>
-    <t>нет</t>
-  </si>
-  <si>
-    <t>מְתֹם</t>
-  </si>
-  <si>
-    <t>здорового</t>
-  </si>
-  <si>
-    <t>בִּבְשָׂרִי</t>
-  </si>
-  <si>
-    <t>в теле моем</t>
-  </si>
-  <si>
-    <t>מִפְּנֵי</t>
-  </si>
-  <si>
-    <t>по причине</t>
-  </si>
-  <si>
-    <t>זַעְמֶךָ</t>
-  </si>
-  <si>
-    <t>гнева Твоего</t>
-  </si>
-  <si>
-    <t>שָׁלוֹם</t>
-  </si>
-  <si>
-    <t>мира</t>
-  </si>
-  <si>
-    <t>בַּעֲצָמַי</t>
-  </si>
-  <si>
-    <t>в костях моих</t>
-  </si>
-  <si>
-    <t>חַטָּאתִי</t>
-  </si>
-  <si>
-    <t>греха моего</t>
-  </si>
-  <si>
-    <t>ה</t>
-  </si>
-  <si>
-    <t>עֲוֹנוֹתַי</t>
-  </si>
-  <si>
-    <t>беззакония мои</t>
-  </si>
-  <si>
-    <t>עָבְרוּ</t>
-  </si>
-  <si>
-    <t>превысили</t>
-  </si>
-  <si>
-    <t>רֹאשִׁי</t>
-  </si>
-  <si>
-    <t>голову мою</t>
-  </si>
-  <si>
-    <t>כְּמַשָּׂא</t>
-  </si>
-  <si>
-    <t>как тяжкое</t>
-  </si>
-  <si>
-    <t>כָבֵד</t>
-  </si>
-  <si>
-    <t>бремя</t>
-  </si>
-  <si>
-    <t>יִכְבְּדוּ</t>
-  </si>
-  <si>
-    <t>тяготеют</t>
-  </si>
-  <si>
-    <t>מִמֶּנִּי</t>
-  </si>
-  <si>
-    <t>надо мною</t>
-  </si>
-  <si>
-    <t>ו</t>
-  </si>
-  <si>
-    <t>הִבְאִישׁוּ</t>
-  </si>
-  <si>
-    <t>смердят</t>
-  </si>
-  <si>
-    <t>נִמַּקּוּ</t>
-  </si>
-  <si>
-    <t>гноятся</t>
-  </si>
-  <si>
-    <t>חַבֻּרוֹתַי</t>
-  </si>
-  <si>
-    <t>раны мои</t>
-  </si>
-  <si>
-    <t>אִוַּלְתִּי</t>
-  </si>
-  <si>
-    <t>безумия моего</t>
-  </si>
-  <si>
-    <t>ז</t>
-  </si>
-  <si>
-    <t>נַעֲוֵיתִי</t>
-  </si>
-  <si>
-    <t>я согбен</t>
-  </si>
-  <si>
-    <t>שַׁחֹתִי</t>
-  </si>
-  <si>
-    <t>и совсем</t>
-  </si>
-  <si>
-    <t>עַד</t>
-  </si>
-  <si>
-    <t>паник</t>
-  </si>
-  <si>
-    <t>מְאֹד כָּל</t>
-  </si>
-  <si>
-    <t>весь день</t>
-  </si>
-  <si>
-    <t>הַיּוֹם קֹדֵר</t>
-  </si>
-  <si>
-    <t>в печали</t>
-  </si>
-  <si>
-    <t>הִלַּכְתִּי</t>
-  </si>
-  <si>
-    <t>хожу</t>
-  </si>
-  <si>
-    <t>ח</t>
-  </si>
-  <si>
-    <t>כְסָלַי</t>
-  </si>
-  <si>
-    <t>чресла мои</t>
-  </si>
-  <si>
-    <t>מָלְאוּ</t>
-  </si>
-  <si>
-    <t>исполнились</t>
-  </si>
-  <si>
-    <t>נִקְלֵית</t>
-  </si>
-  <si>
-    <t>воспалениями</t>
-  </si>
-  <si>
-    <t>וְאֵין</t>
-  </si>
-  <si>
-    <t>и нет</t>
-  </si>
-  <si>
-    <t>ט</t>
-  </si>
-  <si>
-    <t>נְפוּגוֹתַי</t>
-  </si>
-  <si>
-    <t>изнемог</t>
-  </si>
-  <si>
-    <t>נִקְלֵיתִי</t>
-  </si>
-  <si>
-    <t>и сокрушен</t>
-  </si>
-  <si>
-    <t>крайне</t>
-  </si>
-  <si>
-    <t>מְאֹד</t>
-  </si>
-  <si>
-    <t>рычу</t>
-  </si>
-  <si>
-    <t>שָׁאַגְתִּי</t>
-  </si>
-  <si>
-    <t>от терзания</t>
-  </si>
-  <si>
-    <t>מִנַּהֲמַת</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сердца </t>
-  </si>
-  <si>
-    <t>לִבִּי</t>
-  </si>
-  <si>
-    <t>моего</t>
-  </si>
-  <si>
-    <t>י</t>
-  </si>
-  <si>
-    <t>אֲדֹנָי</t>
-  </si>
-  <si>
-    <t>נֶגְדְּךָ</t>
-  </si>
-  <si>
-    <t>пред Тобою</t>
-  </si>
-  <si>
-    <t>כָּל</t>
-  </si>
-  <si>
-    <t>все</t>
-  </si>
-  <si>
-    <t>תַּאֲוָתִי</t>
-  </si>
-  <si>
-    <t>желания мои</t>
-  </si>
-  <si>
-    <t>וְאַנְחָתִי</t>
-  </si>
-  <si>
-    <t>и воздыхание мое</t>
-  </si>
-  <si>
-    <t>מִמְּךָ</t>
-  </si>
-  <si>
-    <t>от Тебя</t>
-  </si>
-  <si>
-    <t>לֹא</t>
-  </si>
-  <si>
-    <t>נִסְתָּרָה</t>
-  </si>
-  <si>
-    <t>скрыто</t>
-  </si>
-  <si>
-    <t>יא</t>
-  </si>
-  <si>
-    <t>сердце мое</t>
-  </si>
-  <si>
-    <t>סְחַרְחַר</t>
-  </si>
-  <si>
-    <t>трепещет</t>
-  </si>
-  <si>
-    <t>עֲזָבַנִי</t>
-  </si>
-  <si>
-    <t>оставила</t>
-  </si>
-  <si>
-    <t>כֹחִי</t>
-  </si>
-  <si>
-    <t>меня</t>
-  </si>
-  <si>
-    <t>וְאוֹר</t>
-  </si>
-  <si>
-    <t>сила моя</t>
-  </si>
-  <si>
-    <t>עֵינַי</t>
-  </si>
-  <si>
-    <t>и свет</t>
-  </si>
-  <si>
-    <t>גַּם</t>
-  </si>
-  <si>
-    <t>очей моих</t>
-  </si>
-  <si>
-    <t>הֵם</t>
-  </si>
-  <si>
-    <t>также</t>
-  </si>
-  <si>
-    <t>אִתִּי</t>
-  </si>
-  <si>
-    <t>со мной</t>
-  </si>
-  <si>
-    <t>יב</t>
-  </si>
-  <si>
-    <t>אֹהֲבַי</t>
-  </si>
-  <si>
-    <t>любящие меня</t>
-  </si>
-  <si>
-    <t>וְרֵעַי</t>
-  </si>
-  <si>
-    <t>и друзья мои</t>
-  </si>
-  <si>
-    <t>מִנֶּגֶד</t>
-  </si>
-  <si>
-    <t>отчуждены</t>
-  </si>
-  <si>
-    <t>נִגְעִי</t>
-  </si>
-  <si>
-    <t>от язвы моей</t>
-  </si>
-  <si>
-    <t>יַעֲמֹדוּ</t>
-  </si>
-  <si>
-    <t>стоят</t>
-  </si>
-  <si>
-    <t>וּקְרוֹבַי</t>
-  </si>
-  <si>
-    <t>и близкие мои</t>
-  </si>
-  <si>
-    <t>מֵרָחֹק</t>
-  </si>
-  <si>
-    <t>издали</t>
-  </si>
-  <si>
-    <t>עָמָדוּ</t>
-  </si>
-  <si>
-    <t>יג</t>
-  </si>
-  <si>
-    <t>וַיְנַקְשׁוּ</t>
-  </si>
-  <si>
-    <t>и строят сети</t>
-  </si>
-  <si>
-    <t>מְבַקְשֵׁי</t>
-  </si>
-  <si>
-    <t>ищущие</t>
-  </si>
-  <si>
-    <t>נַפְשִׁי</t>
-  </si>
-  <si>
-    <t>душу мою</t>
-  </si>
-  <si>
-    <t>וּמְבַקְשֵׁי</t>
-  </si>
-  <si>
-    <t>и желающие</t>
-  </si>
-  <si>
-    <t>רָעָתִי</t>
-  </si>
-  <si>
-    <t>зла мне</t>
-  </si>
-  <si>
-    <t>דִּבְּרוּ</t>
-  </si>
-  <si>
-    <t>говорят</t>
-  </si>
-  <si>
-    <t>הַוּוֹת</t>
-  </si>
-  <si>
-    <t>пагубное</t>
-  </si>
-  <si>
-    <t>וּמִרְמוֹת</t>
-  </si>
-  <si>
-    <t>и коварство</t>
-  </si>
-  <si>
-    <t>весь</t>
-  </si>
-  <si>
-    <t>הַיּוֹם</t>
-  </si>
-  <si>
-    <t>день</t>
-  </si>
-  <si>
-    <t>יֶהְגּוּ</t>
-  </si>
-  <si>
-    <t>замышляют</t>
-  </si>
-  <si>
-    <t>יד</t>
-  </si>
-  <si>
-    <t>וַאֲנִי</t>
-  </si>
-  <si>
-    <t>а я</t>
-  </si>
-  <si>
-    <t>כְחֵרֵשׁ</t>
-  </si>
-  <si>
-    <t>как глухой</t>
-  </si>
-  <si>
-    <t>אֶשְׁמָע</t>
-  </si>
-  <si>
-    <t>слышу</t>
-  </si>
-  <si>
-    <t>וּכְאִלֵּם</t>
-  </si>
-  <si>
-    <t>и как немой</t>
-  </si>
-  <si>
-    <t>יִפְתַּח</t>
-  </si>
-  <si>
-    <t>открывает</t>
-  </si>
-  <si>
-    <t>פִּיו</t>
-  </si>
-  <si>
-    <t>уст своих</t>
-  </si>
-  <si>
-    <t>טו</t>
-  </si>
-  <si>
-    <t>וָאֱהִי</t>
-  </si>
-  <si>
-    <t>и стал я</t>
-  </si>
-  <si>
-    <t>כְּאִישׁ</t>
-  </si>
-  <si>
-    <t>как человек</t>
-  </si>
-  <si>
-    <t>אֲשֶׁר</t>
-  </si>
-  <si>
-    <t>который</t>
-  </si>
-  <si>
-    <t>שֹׁמֵעַ</t>
-  </si>
-  <si>
-    <t>слышит</t>
-  </si>
-  <si>
-    <t>בְּפִיו</t>
-  </si>
-  <si>
-    <t>в устах его</t>
-  </si>
-  <si>
-    <t>תוֹכָחוֹת</t>
-  </si>
-  <si>
-    <t>защиты</t>
-  </si>
-  <si>
-    <t>טז</t>
-  </si>
-  <si>
-    <t>לְךָ</t>
-  </si>
-  <si>
-    <t>на Тебя</t>
-  </si>
-  <si>
-    <t>הוֹחָלְתִּי</t>
-  </si>
-  <si>
-    <t>уповаю</t>
-  </si>
-  <si>
-    <t>אַתָּה</t>
-  </si>
-  <si>
-    <t>Ты</t>
-  </si>
-  <si>
-    <t>תַעֲנֶה</t>
-  </si>
-  <si>
-    <t>отвечаешь</t>
-  </si>
-  <si>
-    <t>אֱלֹהָי</t>
-  </si>
-  <si>
-    <t>Боже мой</t>
-  </si>
-  <si>
-    <t>יז</t>
-  </si>
-  <si>
-    <t>אָמַרְתִּי</t>
-  </si>
-  <si>
-    <t>говорю я</t>
-  </si>
-  <si>
-    <t>פֶּן</t>
-  </si>
-  <si>
-    <t>да не</t>
-  </si>
-  <si>
-    <t>יִשְׂמְחוּ</t>
-  </si>
-  <si>
-    <t>радуются</t>
-  </si>
-  <si>
-    <t>לִי</t>
-  </si>
-  <si>
-    <t>мне</t>
-  </si>
-  <si>
-    <t>בְּמוֹט</t>
-  </si>
-  <si>
-    <t>когда колеблется</t>
-  </si>
-  <si>
-    <t>רַגְלִי</t>
-  </si>
-  <si>
-    <t>нога моя</t>
-  </si>
-  <si>
     <t>надо мной</t>
   </si>
   <si>
@@ -731,9 +767,6 @@
   </si>
   <si>
     <t>אֲנִי</t>
-  </si>
-  <si>
-    <t>я</t>
   </si>
   <si>
     <t>לְצֵלַע</t>
@@ -920,7 +953,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -935,6 +968,11 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -958,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -976,7 +1014,22 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,7 +1376,7 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1387,7 +1440,7 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1419,7 +1472,7 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1451,7 +1504,7 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1483,7 +1536,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1515,13 +1568,13 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1547,13 +1600,13 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1611,10 +1664,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="2"/>
@@ -1643,10 +1696,10 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="2"/>
@@ -1675,10 +1728,10 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2"/>
@@ -1707,10 +1760,10 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="2"/>
@@ -1739,10 +1792,10 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2"/>
@@ -1771,10 +1824,10 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2"/>
@@ -1803,10 +1856,10 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="2"/>
@@ -1835,10 +1888,10 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="10">
         <v>4.0</v>
       </c>
       <c r="C21" s="2"/>
@@ -1867,10 +1920,10 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="2"/>
@@ -1899,10 +1952,10 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="2"/>
@@ -1931,10 +1984,10 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="2"/>
@@ -1963,7 +2016,7 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1995,7 +2048,7 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2027,11 +2080,11 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>38</v>
+      <c r="A27" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2059,11 +2112,11 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>48</v>
+      <c r="A28" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2091,11 +2144,11 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>50</v>
+      <c r="A29" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2123,7 +2176,7 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2155,11 +2208,11 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>52</v>
+      <c r="A31" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2187,10 +2240,10 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="10">
         <v>5.0</v>
       </c>
       <c r="C32" s="2"/>
@@ -2219,11 +2272,11 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>23</v>
+      <c r="A33" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2251,11 +2304,11 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>55</v>
+      <c r="A34" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2283,11 +2336,11 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>57</v>
+      <c r="A35" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2315,11 +2368,11 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>59</v>
+      <c r="A36" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2347,11 +2400,11 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>61</v>
+      <c r="A37" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2379,11 +2432,11 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>63</v>
+      <c r="A38" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2411,11 +2464,11 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>65</v>
+      <c r="A39" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2443,11 +2496,11 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>67</v>
+      <c r="A40" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2475,10 +2528,10 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="6">
+      <c r="A41" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="10">
         <v>6.0</v>
       </c>
       <c r="C41" s="2"/>
@@ -2507,11 +2560,11 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>71</v>
+      <c r="A42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2539,11 +2592,11 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>73</v>
+      <c r="A43" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2571,11 +2624,11 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>75</v>
+      <c r="A44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2603,11 +2656,11 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>45</v>
+      <c r="A45" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2635,11 +2688,11 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>77</v>
+      <c r="A46" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2667,10 +2720,10 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="6">
+      <c r="A47" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="10">
         <v>7.0</v>
       </c>
       <c r="C47" s="2"/>
@@ -2699,11 +2752,11 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>80</v>
+      <c r="A48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2731,11 +2784,11 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>82</v>
+      <c r="A49" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2763,11 +2816,11 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>84</v>
+      <c r="A50" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2795,11 +2848,11 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>86</v>
+      <c r="A51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2827,11 +2880,11 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>88</v>
+      <c r="A52" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2859,11 +2912,11 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>90</v>
+      <c r="A53" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2891,11 +2944,11 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="6">
-        <v>8.0</v>
+      <c r="A54" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2923,11 +2976,11 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>24</v>
+      <c r="A55" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2955,11 +3008,11 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>93</v>
+      <c r="A56" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="10">
+        <v>8.0</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2987,11 +3040,11 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>95</v>
+      <c r="A57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3019,11 +3072,11 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>97</v>
+      <c r="A58" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3051,11 +3104,11 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>99</v>
+      <c r="A59" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3083,11 +3136,11 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>41</v>
+      <c r="A60" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3115,11 +3168,11 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>43</v>
+      <c r="A61" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3147,11 +3200,11 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="6">
-        <v>9.0</v>
+      <c r="A62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3179,11 +3232,11 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>102</v>
+      <c r="A63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3211,11 +3264,11 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>104</v>
+      <c r="A64" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="10">
+        <v>9.0</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3243,11 +3296,11 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>105</v>
+      <c r="A65" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3275,11 +3328,11 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>107</v>
+      <c r="A66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3307,11 +3360,11 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>109</v>
+      <c r="A67" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3339,11 +3392,11 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>111</v>
+      <c r="A68" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3371,11 +3424,11 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>113</v>
+      <c r="A69" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3403,11 +3456,11 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="6">
-        <v>10.0</v>
+      <c r="A70" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3435,11 +3488,11 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>11</v>
+      <c r="A71" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3467,11 +3520,11 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>117</v>
+      <c r="A72" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="10">
+        <v>10.0</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3499,11 +3552,11 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>119</v>
+      <c r="A73" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3531,11 +3584,11 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>121</v>
+      <c r="A74" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3563,11 +3616,11 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>123</v>
+      <c r="A75" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3595,11 +3648,11 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>125</v>
+      <c r="A76" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3627,11 +3680,11 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>13</v>
+      <c r="A77" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3659,11 +3712,11 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>128</v>
+      <c r="A78" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3691,11 +3744,11 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="6">
-        <v>11.0</v>
+      <c r="A79" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3723,11 +3776,11 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>130</v>
+      <c r="A80" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3755,11 +3808,11 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>132</v>
+      <c r="A81" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="10">
+        <v>11.0</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3787,11 +3840,11 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>134</v>
+      <c r="A82" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3819,11 +3872,11 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>136</v>
+      <c r="A83" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3851,11 +3904,11 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>138</v>
+      <c r="A84" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3883,11 +3936,11 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>140</v>
+      <c r="A85" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3915,11 +3968,11 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>142</v>
+      <c r="A86" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3947,11 +4000,11 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>144</v>
+      <c r="A87" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3979,11 +4032,11 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>39</v>
+      <c r="A88" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4011,11 +4064,11 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>146</v>
+      <c r="A89" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4043,11 +4096,11 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B90" s="6">
-        <v>12.0</v>
+      <c r="A90" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4075,11 +4128,11 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>149</v>
+      <c r="A91" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4107,11 +4160,11 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>151</v>
+      <c r="A92" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="10">
+        <v>12.0</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4139,11 +4192,11 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>153</v>
+      <c r="A93" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4171,11 +4224,11 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>155</v>
+      <c r="A94" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4203,11 +4256,11 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>157</v>
+      <c r="A95" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4235,11 +4288,11 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>159</v>
+      <c r="A96" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4267,11 +4320,11 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>161</v>
+      <c r="A97" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4299,11 +4352,11 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>157</v>
+      <c r="A98" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4331,11 +4384,11 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B99" s="6">
-        <v>13.0</v>
+      <c r="A99" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4363,11 +4416,11 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="s">
-        <v>164</v>
+      <c r="A100" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4395,11 +4448,11 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="4" t="s">
-        <v>166</v>
+      <c r="A101" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4427,11 +4480,11 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>169</v>
+      <c r="A102" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" s="10">
+        <v>13.0</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4459,11 +4512,11 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="4" t="s">
-        <v>170</v>
+      <c r="A103" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4491,11 +4544,11 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="4" t="s">
-        <v>172</v>
+      <c r="A104" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4523,11 +4576,11 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="4" t="s">
-        <v>174</v>
+      <c r="A105" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4555,11 +4608,11 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="4" t="s">
-        <v>176</v>
+      <c r="A106" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4587,11 +4640,11 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="4" t="s">
-        <v>178</v>
+      <c r="A107" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4619,11 +4672,11 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="4" t="s">
-        <v>118</v>
+      <c r="A108" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4651,11 +4704,11 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="4" t="s">
-        <v>181</v>
+      <c r="A109" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4684,10 +4737,10 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4715,11 +4768,11 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B111" s="6">
-        <v>14.0</v>
+      <c r="A111" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4748,10 +4801,10 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4780,10 +4833,10 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4811,11 +4864,11 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>13</v>
+      <c r="A114" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B114" s="10">
+        <v>14.0</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4844,10 +4897,10 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4876,10 +4929,10 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4908,7 +4961,7 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>13</v>
@@ -4940,10 +4993,10 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4972,10 +5025,10 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -5003,11 +5056,11 @@
       <c r="Z119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B120" s="6">
-        <v>15.0</v>
+      <c r="B120" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -5036,10 +5089,10 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -5068,10 +5121,10 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -5099,11 +5152,11 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>204</v>
+      <c r="A123" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B123" s="10">
+        <v>15.0</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -5132,10 +5185,10 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -5164,10 +5217,10 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5196,10 +5249,10 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5228,10 +5281,10 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5260,10 +5313,10 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5291,11 +5344,11 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B129" s="6">
-        <v>16.0</v>
+      <c r="A129" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5324,10 +5377,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5356,10 +5409,10 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5387,11 +5440,11 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>11</v>
+      <c r="A132" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B132" s="10">
+        <v>16.0</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5420,10 +5473,10 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5452,10 +5505,10 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5484,10 +5537,10 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5516,10 +5569,10 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5548,10 +5601,10 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5579,11 +5632,11 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B138" s="6">
-        <v>17.0</v>
+      <c r="A138" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5612,10 +5665,10 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5644,10 +5697,10 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5675,11 +5728,11 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>226</v>
+      <c r="A141" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B141" s="10">
+        <v>17.0</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5708,10 +5761,10 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -5740,10 +5793,10 @@
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -5772,10 +5825,10 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -5804,10 +5857,10 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -5836,10 +5889,10 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5868,10 +5921,10 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -5899,11 +5952,11 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B148" s="6">
-        <v>18.0</v>
+      <c r="A148" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5932,10 +5985,10 @@
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5964,10 +6017,10 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5995,11 +6048,11 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>242</v>
+      <c r="A151" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B151" s="10">
+        <v>18.0</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -6028,10 +6081,10 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -6060,10 +6113,10 @@
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6092,10 +6145,10 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6124,10 +6177,10 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6155,11 +6208,11 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B156" s="6">
-        <v>19.0</v>
+      <c r="A156" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6188,10 +6241,10 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6220,10 +6273,10 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6251,11 +6304,11 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>255</v>
+      <c r="A159" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B159" s="10">
+        <v>19.0</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6284,10 +6337,10 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>256</v>
+        <v>57</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6316,10 +6369,10 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6347,11 +6400,11 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B162" s="6">
-        <v>20.0</v>
+      <c r="A162" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6380,10 +6433,10 @@
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6412,10 +6465,10 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6443,11 +6496,11 @@
       <c r="Z164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>266</v>
+      <c r="A165" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B165" s="10">
+        <v>20.0</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -6476,10 +6529,10 @@
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6508,10 +6561,10 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -6540,10 +6593,10 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -6571,11 +6624,11 @@
       <c r="Z168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B169" s="6">
-        <v>21.0</v>
+      <c r="A169" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6604,10 +6657,10 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -6636,10 +6689,10 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -6667,11 +6720,11 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>279</v>
+      <c r="A172" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B172" s="10">
+        <v>21.0</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -6700,10 +6753,10 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6732,10 +6785,10 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6764,10 +6817,10 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -6796,10 +6849,10 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -6827,11 +6880,11 @@
       <c r="Z176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B177" s="6">
-        <v>22.0</v>
+      <c r="A177" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -6860,10 +6913,10 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>13</v>
+        <v>296</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -6892,10 +6945,10 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -6923,11 +6976,11 @@
       <c r="Z179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>11</v>
+      <c r="A180" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B180" s="10">
+        <v>22.0</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -6956,10 +7009,10 @@
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -6988,10 +7041,10 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -7020,10 +7073,10 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -7052,10 +7105,10 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -7083,11 +7136,11 @@
       <c r="Z184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B185" s="6">
-        <v>23.0</v>
+      <c r="A185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -7116,10 +7169,10 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -7148,10 +7201,10 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>297</v>
+        <v>71</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -7179,11 +7232,11 @@
       <c r="Z187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>11</v>
+      <c r="A188" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B188" s="10">
+        <v>23.0</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -7212,10 +7265,10 @@
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -7243,8 +7296,12 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
+      <c r="A190" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>309</v>
+      </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7271,8 +7328,12 @@
       <c r="Z190" s="2"/>
     </row>
     <row r="191">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
+      <c r="A191" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7299,8 +7360,12 @@
       <c r="Z191" s="2"/>
     </row>
     <row r="192">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
+      <c r="A192" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -29894,6 +29959,90 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
+    <row r="999">
+      <c r="A999" s="2"/>
+      <c r="B999" s="2"/>
+      <c r="C999" s="2"/>
+      <c r="D999" s="2"/>
+      <c r="E999" s="2"/>
+      <c r="F999" s="2"/>
+      <c r="G999" s="2"/>
+      <c r="H999" s="2"/>
+      <c r="I999" s="2"/>
+      <c r="J999" s="2"/>
+      <c r="K999" s="2"/>
+      <c r="L999" s="2"/>
+      <c r="M999" s="2"/>
+      <c r="N999" s="2"/>
+      <c r="O999" s="2"/>
+      <c r="P999" s="2"/>
+      <c r="Q999" s="2"/>
+      <c r="R999" s="2"/>
+      <c r="S999" s="2"/>
+      <c r="T999" s="2"/>
+      <c r="U999" s="2"/>
+      <c r="V999" s="2"/>
+      <c r="W999" s="2"/>
+      <c r="X999" s="2"/>
+      <c r="Y999" s="2"/>
+      <c r="Z999" s="2"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2"/>
+      <c r="B1000" s="2"/>
+      <c r="C1000" s="2"/>
+      <c r="D1000" s="2"/>
+      <c r="E1000" s="2"/>
+      <c r="F1000" s="2"/>
+      <c r="G1000" s="2"/>
+      <c r="H1000" s="2"/>
+      <c r="I1000" s="2"/>
+      <c r="J1000" s="2"/>
+      <c r="K1000" s="2"/>
+      <c r="L1000" s="2"/>
+      <c r="M1000" s="2"/>
+      <c r="N1000" s="2"/>
+      <c r="O1000" s="2"/>
+      <c r="P1000" s="2"/>
+      <c r="Q1000" s="2"/>
+      <c r="R1000" s="2"/>
+      <c r="S1000" s="2"/>
+      <c r="T1000" s="2"/>
+      <c r="U1000" s="2"/>
+      <c r="V1000" s="2"/>
+      <c r="W1000" s="2"/>
+      <c r="X1000" s="2"/>
+      <c r="Y1000" s="2"/>
+      <c r="Z1000" s="2"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
